--- a/proyecto2.2/analisisRendimiento/Analisis_Concurrencia_Eficiencia_Speedup.xlsx
+++ b/proyecto2.2/analisisRendimiento/Analisis_Concurrencia_Eficiencia_Speedup.xlsx
@@ -1,17 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\dsc\concurrente24a_critical_race_condition\proyecto2.2\analisisRendimiento\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3176BFC7-09D8-4A45-AF42-B74DC14DA62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Caso de prueba: Job003</t>
   </si>
@@ -32,6 +54,9 @@
   </si>
   <si>
     <t>OpenMP</t>
+  </si>
+  <si>
+    <t>MPI 4 proc</t>
   </si>
   <si>
     <t>Caso de prueba: Job010</t>
@@ -67,18 +92,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -89,7 +115,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -111,7 +137,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -125,47 +157,55 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -182,7 +222,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-US" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -197,22 +237,34 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.03091666666666667"/>
-          <c:y val="0.04730458221024259"/>
+          <c:x val="3.0916666666666669E-2"/>
+          <c:y val="4.7304582210242592E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>'Hoja 1'!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Caso de prueba: Job003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Corrida</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -225,23 +277,76 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Hoja 1'!$B$5:$B$6</c:f>
+              <c:f>'Hoja 1'!$B$5:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>serial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OpenMP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MPI 4 proc</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Hoja 1'!$C$5:$C$6</c:f>
-              <c:numCache/>
+              <c:f>'Hoja 1'!$C$5:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>108.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.004000000000001</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln cmpd="sng">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A9DD-466E-BC72-E2B071652C2D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:axId val="919613212"/>
-        <c:axId val="856579052"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1753361985"/>
+        <c:axId val="1461876179"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="919613212"/>
+        <c:axId val="1753361985"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -261,15 +366,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="es-PH"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -278,7 +375,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -291,12 +388,18 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-PH"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="856579052"/>
+        <c:crossAx val="1461876179"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="856579052"/>
+        <c:axId val="1461876179"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -337,7 +440,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-US" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -369,9 +472,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-PH"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="919613212"/>
+        <c:crossAx val="1753361985"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -389,16 +495,28 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="es-PH"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -415,7 +533,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-US" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -428,16 +546,28 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>'Hoja 1'!$C$11:$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Caso de prueba: Job010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Corrida</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -450,23 +580,76 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Hoja 1'!$B$13:$B$14</c:f>
+              <c:f>'Hoja 1'!$B$13:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>serial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OpenMP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MPI 4 proc</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Hoja 1'!$C$13:$C$14</c:f>
-              <c:numCache/>
+              <c:f>'Hoja 1'!$C$13:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1066.3900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>410.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>366.53399999999999</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln cmpd="sng">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F6FC-4A9E-BC1C-855073AE3FEA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:axId val="1837166784"/>
-        <c:axId val="1611857624"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1574870309"/>
+        <c:axId val="1270088360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1837166784"/>
+        <c:axId val="1574870309"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -486,15 +669,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="es-PH"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -503,7 +678,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -516,12 +691,18 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-PH"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1611857624"/>
+        <c:crossAx val="1270088360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1611857624"/>
+        <c:axId val="1270088360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -562,7 +743,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-US" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -594,9 +775,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-PH"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1837166784"/>
+        <c:crossAx val="1574870309"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -614,16 +798,28 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="es-PH"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -640,7 +836,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-US" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -653,16 +849,28 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>'Hoja 1'!$D$11:$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Caso de prueba: Job010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>speedup</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -675,22 +883,76 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Hoja 1'!$B$13:$B$14</c:f>
+              <c:f>'Hoja 1'!$B$13:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>serial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OpenMP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MPI 4 proc</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Hoja 1'!$D$13:$D$14</c:f>
-              <c:numCache/>
+              <c:f>'Hoja 1'!$D$13:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6005072304728465</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9093890334866619</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln cmpd="sng">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E710-476D-9AD0-01E7111F1831}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:axId val="518192354"/>
-        <c:axId val="1815957391"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1308195350"/>
+        <c:axId val="1527806827"/>
       </c:barChart>
       <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -698,6 +960,15 @@
           <c:tx>
             <c:strRef>
               <c:f>'Hoja 1'!$E$11:$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Caso de prueba: Job010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>efficiency</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -712,22 +983,61 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Hoja 1'!$B$13:$B$14</c:f>
+              <c:f>'Hoja 1'!$B$13:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>serial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OpenMP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MPI 4 proc</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Hoja 1'!$E$13:$E$14</c:f>
-              <c:numCache/>
+              <c:f>'Hoja 1'!$E$13:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16253170190455291</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18183681459291637</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E710-476D-9AD0-01E7111F1831}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:axId val="518192354"/>
-        <c:axId val="1815957391"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1308195350"/>
+        <c:axId val="1527806827"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="518192354"/>
+        <c:axId val="1308195350"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -748,7 +1058,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-US" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -764,7 +1074,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -777,12 +1087,18 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-PH"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1815957391"/>
+        <c:crossAx val="1527806827"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1815957391"/>
+        <c:axId val="1527806827"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -822,21 +1138,13 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="es-PH"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -855,9 +1163,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-PH"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518192354"/>
+        <c:crossAx val="1308195350"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -875,16 +1186,28 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="es-PH"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -901,7 +1224,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-US" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -914,16 +1237,25 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>'Hoja 1'!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>speedup</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -936,22 +1268,76 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Hoja 1'!$B$5:$B$6</c:f>
+              <c:f>'Hoja 1'!$B$5:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>serial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OpenMP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MPI 4 proc</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Hoja 1'!$D$5:$D$6</c:f>
-              <c:numCache/>
+              <c:f>'Hoja 1'!$D$5:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4898681247989707</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5200799866688879</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln cmpd="sng">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-39C7-4AEF-9D31-2A6A7B7D4854}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:axId val="283722890"/>
-        <c:axId val="2116399328"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="729790795"/>
+        <c:axId val="1203202444"/>
       </c:barChart>
       <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -959,6 +1345,12 @@
           <c:tx>
             <c:strRef>
               <c:f>'Hoja 1'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>efficiency</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -973,22 +1365,61 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Hoja 1'!$B$5:$B$6</c:f>
+              <c:f>'Hoja 1'!$B$5:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>serial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OpenMP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MPI 4 proc</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Hoja 1'!$E$5:$E$6</c:f>
-              <c:numCache/>
+              <c:f>'Hoja 1'!$E$5:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21811675779993567</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28250499916680549</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-39C7-4AEF-9D31-2A6A7B7D4854}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:axId val="283722890"/>
-        <c:axId val="2116399328"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="729790795"/>
+        <c:axId val="1203202444"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="283722890"/>
+        <c:axId val="729790795"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1009,7 +1440,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-US" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1025,7 +1456,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -1038,12 +1469,18 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-PH"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2116399328"/>
+        <c:crossAx val="1203202444"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2116399328"/>
+        <c:axId val="1203202444"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1083,21 +1520,13 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="es-PH"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1116,9 +1545,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-PH"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283722890"/>
+        <c:crossAx val="729790795"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1136,16 +1568,24 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="es-PH"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -1154,9 +1594,15 @@
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Gráfico"/>
+        <xdr:cNvPr id="2" name="Chart 1" title="Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1165,7 +1611,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1173,15 +1619,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2" title="Gráfico"/>
+        <xdr:cNvPr id="3" name="Chart 2" title="Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1190,7 +1642,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1198,15 +1650,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 3" title="Gráfico"/>
+        <xdr:cNvPr id="4" name="Chart 3" title="Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1215,7 +1673,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1225,13 +1683,19 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 4" title="Gráfico"/>
+        <xdr:cNvPr id="5" name="Chart 4" title="Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1240,7 +1704,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1250,7 +1714,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1440,31 +1904,36 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B3:K95"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.25"/>
-    <col customWidth="1" min="2" max="2" width="11.0"/>
-    <col customWidth="1" min="8" max="8" width="12.63"/>
-    <col customWidth="1" min="9" max="9" width="23.5"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1478,7 +1947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1494,7 +1963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1502,20 +1971,36 @@
         <v>31.09</v>
       </c>
       <c r="D6" s="6">
-        <f>C$5/C6</f>
-        <v>3.489868125</v>
+        <f t="shared" ref="D6:D7" si="0">C$5/C6</f>
+        <v>3.4898681247989707</v>
       </c>
       <c r="E6" s="6">
-        <f>D6/16</f>
-        <v>0.2181167578</v>
+        <f t="shared" ref="E6:E7" si="1">D6/16</f>
+        <v>0.21811675779993567</v>
       </c>
     </row>
-    <row r="11">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5">
+        <v>24.004000000000001</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
+        <v>4.5200799866688879</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="1"/>
+        <v>0.28250499916680549</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
@@ -1529,12 +2014,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="5">
-        <v>1066.39</v>
+        <v>1066.3900000000001</v>
       </c>
       <c r="D13" s="6">
         <f>C13/C13</f>
@@ -1545,7 +2030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
@@ -1553,70 +2038,87 @@
         <v>410.07</v>
       </c>
       <c r="D14" s="6">
-        <f>C$13/C14</f>
-        <v>2.60050723</v>
+        <f t="shared" ref="D14:D15" si="2">C$13/C14</f>
+        <v>2.6005072304728465</v>
       </c>
       <c r="E14" s="6">
-        <f>D14/16</f>
-        <v>0.1625317019</v>
+        <f t="shared" ref="E14:E15" si="3">D14/16</f>
+        <v>0.16253170190455291</v>
       </c>
     </row>
-    <row r="91">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5">
+        <v>366.53399999999999</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="2"/>
+        <v>2.9093890334866619</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="3"/>
+        <v>0.18183681459291637</v>
+      </c>
+    </row>
+    <row r="91" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I91" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K91" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I92" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J92" s="8">
-        <v>3200.0</v>
+        <v>3200</v>
       </c>
       <c r="K92" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I93" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J93" s="8">
+        <v>3200</v>
+      </c>
+      <c r="K93" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J93" s="8">
-        <v>3200.0</v>
-      </c>
-      <c r="K93" s="8" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="94">
+    <row r="94" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I94" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J94" s="8">
-        <v>3000.0</v>
+        <v>3000</v>
       </c>
       <c r="K94" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I95" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J95" s="8">
-        <v>2133.0</v>
+        <v>2133</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>